--- a/One_Time_Bills/Anil_Agarwal_Jobuss_OneTime.xlsx
+++ b/One_Time_Bills/Anil_Agarwal_Jobuss_OneTime.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Anil Agarwal jobuss Bill" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Annexure" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -560,6 +560,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -724,15 +733,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1328,7 +1328,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>8</row>
+      <row>12</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1905000" cy="952500"/>
@@ -1353,7 +1353,7 @@
     <from>
       <col>7</col>
       <colOff>0</colOff>
-      <row>8</row>
+      <row>12</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1190625" cy="1190625"/>
@@ -1666,7 +1666,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1680,26 +1680,26 @@
   </sheetPr>
   <dimension ref="A2:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="9.5546875" customWidth="1" min="1" max="1"/>
+    <col width="9.54296875" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="18.88671875" customWidth="1" min="3" max="3"/>
+    <col width="18.90625" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="17.88671875" customWidth="1" min="5" max="5"/>
-    <col width="13.109375" customWidth="1" min="6" max="6"/>
-    <col width="23.109375" customWidth="1" min="7" max="7"/>
-    <col width="26.88671875" customWidth="1" min="8" max="8"/>
-    <col width="10.88671875" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="17.90625" customWidth="1" min="5" max="5"/>
+    <col width="13.08984375" customWidth="1" min="6" max="6"/>
+    <col width="23.08984375" customWidth="1" min="7" max="7"/>
+    <col width="26.90625" customWidth="1" min="8" max="8"/>
+    <col width="10.90625" bestFit="1" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" thickBot="1"/>
     <row r="2" ht="89.25" customHeight="1" thickBot="1">
-      <c r="A2" s="43" t="inlineStr">
+      <c r="A2" s="46" t="inlineStr">
         <is>
           <t>Jobuss Resources Pvt Ltd.</t>
         </is>
@@ -1708,7 +1708,7 @@
       <c r="C2" s="100" t="n"/>
       <c r="D2" s="100" t="n"/>
       <c r="E2" s="100" t="n"/>
-      <c r="F2" s="46" t="n"/>
+      <c r="F2" s="49" t="n"/>
       <c r="G2" s="100" t="n"/>
       <c r="H2" s="25" t="n"/>
     </row>
@@ -1782,7 +1782,7 @@
       <c r="G7" s="39" t="n"/>
       <c r="H7" s="5" t="n"/>
     </row>
-    <row r="8">
+    <row r="8" ht="14.4" customHeight="1">
       <c r="A8" s="107" t="inlineStr">
         <is>
           <t>5, TTC Industrial Area,</t>
@@ -1801,7 +1801,7 @@
         </is>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="14.4" customHeight="1">
       <c r="A9" s="107" t="inlineStr">
         <is>
           <t>Reliance Corporate Park,</t>
@@ -1816,7 +1816,7 @@
       <c r="H9" s="19" t="n"/>
       <c r="I9" s="8" t="n"/>
     </row>
-    <row r="10">
+    <row r="10" ht="14.4" customHeight="1">
       <c r="A10" s="107" t="inlineStr">
         <is>
           <t>Thane-Belapur Road, Ghansoli, Navi Mumbai 400701</t>
@@ -1831,7 +1831,7 @@
       <c r="H10" s="19" t="n"/>
       <c r="I10" s="8" t="n"/>
     </row>
-    <row r="11">
+    <row r="11" ht="14.4" customHeight="1">
       <c r="A11" s="9" t="inlineStr">
         <is>
           <t>GST NO:</t>
@@ -1872,10 +1872,14 @@
           <t xml:space="preserve">Bill Date :  </t>
         </is>
       </c>
-      <c r="G12" s="109" t="n"/>
+      <c r="G12" s="109" t="inlineStr">
+        <is>
+          <t>28-02-2026</t>
+        </is>
+      </c>
       <c r="H12" s="16" t="n"/>
     </row>
-    <row r="13">
+    <row r="13" ht="14.4" customHeight="1">
       <c r="A13" s="9" t="inlineStr">
         <is>
           <t>Kind Attn:</t>
@@ -1889,22 +1893,26 @@
       <c r="C13" s="11" t="n"/>
       <c r="D13" s="11" t="n"/>
       <c r="E13" s="12" t="n"/>
-      <c r="F13" s="97" t="inlineStr">
+      <c r="F13" s="40" t="inlineStr">
         <is>
           <t>Due Date:</t>
         </is>
       </c>
-      <c r="G13" s="98" t="n"/>
-      <c r="H13" s="99" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="66" t="inlineStr">
+      <c r="G13" s="41" t="inlineStr">
+        <is>
+          <t>03-03-2026</t>
+        </is>
+      </c>
+      <c r="H13" s="42" t="n"/>
+    </row>
+    <row r="14" ht="14.4" customHeight="1">
+      <c r="A14" s="69" t="inlineStr">
         <is>
           <t>Place of Service: Navi Mumbai</t>
         </is>
       </c>
-      <c r="D14" s="58" t="n"/>
-      <c r="E14" s="59" t="n"/>
+      <c r="D14" s="61" t="n"/>
+      <c r="E14" s="62" t="n"/>
       <c r="F14" s="110" t="inlineStr">
         <is>
           <t>SAC Code:  998513 (Contract Staffing Services)</t>
@@ -1920,14 +1928,14 @@
           <t xml:space="preserve">Vendor Code: </t>
         </is>
       </c>
-      <c r="G15" s="67" t="n">
+      <c r="G15" s="70" t="n">
         <v>3347687</v>
       </c>
       <c r="H15" s="19" t="n"/>
       <c r="I15" s="20" t="n"/>
       <c r="K15" s="111" t="n"/>
     </row>
-    <row r="16" ht="18.6" customHeight="1" thickBot="1">
+    <row r="16" ht="18.65" customHeight="1" thickBot="1">
       <c r="A16" s="22" t="inlineStr">
         <is>
           <t>Work Order :540034732</t>
@@ -1937,14 +1945,14 @@
       <c r="C16" s="23" t="n"/>
       <c r="D16" s="23" t="n"/>
       <c r="E16" s="24" t="n"/>
-      <c r="F16" s="63" t="n"/>
+      <c r="F16" s="66" t="n"/>
       <c r="G16" s="100" t="n"/>
       <c r="H16" s="25" t="n"/>
     </row>
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="112" t="inlineStr">
         <is>
-          <t>Contract staffing services for Assistance in Various Department Period:</t>
+          <t>One Time Service Charge for Feb 2026</t>
         </is>
       </c>
       <c r="B17" s="28" t="n"/>
@@ -1953,7 +1961,9 @@
       <c r="E17" s="28" t="n"/>
       <c r="F17" s="28" t="n"/>
       <c r="G17" s="29" t="n"/>
-      <c r="H17" s="113" t="n"/>
+      <c r="H17" s="113" t="n">
+        <v>180000</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="36" t="n"/>
@@ -1975,8 +1985,8 @@
       <c r="G20" s="34" t="n"/>
       <c r="H20" s="115" t="n"/>
     </row>
-    <row r="21" ht="15.6" customHeight="1">
-      <c r="A21" s="82" t="inlineStr">
+    <row r="21" ht="15.65" customHeight="1">
+      <c r="A21" s="85" t="inlineStr">
         <is>
           <t>Add : CGST @ 9%</t>
         </is>
@@ -1987,13 +1997,12 @@
       <c r="E21" s="116" t="n"/>
       <c r="F21" s="116" t="n"/>
       <c r="G21" s="117" t="n"/>
-      <c r="H21" s="118">
-        <f>H17*9%</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A22" s="82" t="inlineStr">
+      <c r="H21" s="118" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="22" ht="16.25" customHeight="1" thickBot="1">
+      <c r="A22" s="85" t="inlineStr">
         <is>
           <t>Add : SGST @ 9%</t>
         </is>
@@ -2004,9 +2013,8 @@
       <c r="E22" s="116" t="n"/>
       <c r="F22" s="116" t="n"/>
       <c r="G22" s="117" t="n"/>
-      <c r="H22" s="118">
-        <f>H17*9%</f>
-        <v/>
+      <c r="H22" s="118" t="n">
+        <v>16200</v>
       </c>
     </row>
     <row r="23">
@@ -2017,18 +2025,21 @@
       <c r="E23" s="28" t="n"/>
       <c r="F23" s="28" t="n"/>
       <c r="G23" s="29" t="n"/>
-      <c r="H23" s="119">
-        <f>H17+H21+H22</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15.6" customHeight="1">
+      <c r="H23" s="119" t="n">
+        <v>212400</v>
+      </c>
+    </row>
+    <row r="24" ht="15.5" customHeight="1">
       <c r="A24" s="30" t="inlineStr">
         <is>
           <t>Rupees:</t>
         </is>
       </c>
-      <c r="B24" s="31" t="n"/>
+      <c r="B24" s="31" t="inlineStr">
+        <is>
+          <t>Two Lakh, Twelve Thousand, Four Hundred Only</t>
+        </is>
+      </c>
       <c r="G24" s="19" t="n"/>
       <c r="H24" s="114" t="n"/>
     </row>
@@ -2042,28 +2053,28 @@
       <c r="G25" s="34" t="n"/>
       <c r="H25" s="120" t="n"/>
     </row>
-    <row r="26" ht="15.6" customHeight="1">
+    <row r="26" ht="15.65" customHeight="1">
       <c r="A26" s="30" t="n"/>
       <c r="B26" s="31" t="n"/>
       <c r="H26" s="121" t="n"/>
     </row>
-    <row r="27">
+    <row r="27" ht="14.4" customHeight="1">
       <c r="A27" s="36" t="n"/>
       <c r="H27" s="19" t="n"/>
     </row>
-    <row r="28">
+    <row r="28" ht="14.4" customHeight="1">
       <c r="A28" s="36" t="n"/>
       <c r="H28" s="19" t="n"/>
     </row>
-    <row r="29">
+    <row r="29" ht="14.4" customHeight="1">
       <c r="A29" s="36" t="n"/>
       <c r="H29" s="19" t="n"/>
     </row>
-    <row r="30">
+    <row r="30" ht="14.4" customHeight="1">
       <c r="A30" s="36" t="n"/>
       <c r="H30" s="19" t="n"/>
     </row>
-    <row r="31">
+    <row r="31" ht="14.4" customHeight="1">
       <c r="A31" s="36" t="n"/>
       <c r="H31" s="19" t="n"/>
     </row>
@@ -2081,13 +2092,13 @@
       <c r="C33" s="25" t="n"/>
       <c r="H33" s="19" t="n"/>
     </row>
-    <row r="34">
+    <row r="34" ht="14.4" customHeight="1">
       <c r="A34" s="36" t="inlineStr">
         <is>
           <t>Name:</t>
         </is>
       </c>
-      <c r="B34" s="92" t="inlineStr">
+      <c r="B34" s="95" t="inlineStr">
         <is>
           <t>Jobuss Resources Pvt. Ltd.</t>
         </is>
@@ -2095,13 +2106,13 @@
       <c r="C34" s="19" t="n"/>
       <c r="H34" s="19" t="n"/>
     </row>
-    <row r="35">
+    <row r="35" ht="14.4" customHeight="1">
       <c r="A35" s="36" t="inlineStr">
         <is>
           <t>Bank Name:</t>
         </is>
       </c>
-      <c r="B35" s="92" t="inlineStr">
+      <c r="B35" s="95" t="inlineStr">
         <is>
           <t>ICICI Bank</t>
         </is>
@@ -2109,7 +2120,7 @@
       <c r="C35" s="19" t="n"/>
       <c r="H35" s="19" t="n"/>
     </row>
-    <row r="36">
+    <row r="36" ht="14.4" customHeight="1">
       <c r="A36" s="36" t="inlineStr">
         <is>
           <t>A/c No.:</t>
@@ -2123,13 +2134,13 @@
       <c r="C36" s="19" t="n"/>
       <c r="H36" s="19" t="n"/>
     </row>
-    <row r="37">
+    <row r="37" ht="14.4" customHeight="1">
       <c r="A37" s="36" t="inlineStr">
         <is>
           <t>IFSC Code:</t>
         </is>
       </c>
-      <c r="B37" s="92" t="inlineStr">
+      <c r="B37" s="95" t="inlineStr">
         <is>
           <t>ICIC0001209</t>
         </is>
@@ -2151,126 +2162,126 @@
       <c r="C38" s="34" t="n"/>
       <c r="H38" s="19" t="n"/>
     </row>
-    <row r="39">
+    <row r="39" ht="14.4" customHeight="1">
       <c r="A39" s="36" t="n"/>
       <c r="H39" s="19" t="n"/>
     </row>
-    <row r="40">
+    <row r="40" ht="14.4" customHeight="1">
       <c r="A40" s="36" t="n"/>
       <c r="H40" s="19" t="n"/>
     </row>
-    <row r="41">
+    <row r="41" ht="14.4" customHeight="1">
       <c r="A41" s="36" t="n"/>
       <c r="H41" s="19" t="n"/>
     </row>
-    <row r="42">
+    <row r="42" ht="14.4" customHeight="1">
       <c r="A42" s="36" t="n"/>
       <c r="H42" s="19" t="n"/>
     </row>
-    <row r="43">
+    <row r="43" ht="14.4" customHeight="1">
       <c r="A43" s="36" t="n"/>
       <c r="H43" s="19" t="n"/>
     </row>
-    <row r="44">
+    <row r="44" ht="14.4" customHeight="1">
       <c r="A44" s="36" t="n"/>
       <c r="H44" s="19" t="n"/>
     </row>
-    <row r="45" ht="15.6" customHeight="1">
+    <row r="45" ht="15.65" customHeight="1">
       <c r="A45" s="36" t="n"/>
-      <c r="G45" s="87" t="inlineStr">
+      <c r="G45" s="90" t="inlineStr">
         <is>
           <t xml:space="preserve">    For Jobuss Resources Pvt. Ltd.</t>
         </is>
       </c>
       <c r="H45" s="19" t="n"/>
     </row>
-    <row r="46">
+    <row r="46" ht="14.4" customHeight="1">
       <c r="A46" s="36" t="n"/>
       <c r="H46" s="19" t="n"/>
     </row>
-    <row r="47">
+    <row r="47" ht="14.4" customHeight="1">
       <c r="A47" s="36" t="n"/>
       <c r="H47" s="19" t="n"/>
     </row>
-    <row r="48">
+    <row r="48" ht="14.4" customHeight="1">
       <c r="A48" s="36" t="n"/>
       <c r="H48" s="19" t="n"/>
     </row>
-    <row r="49">
+    <row r="49" ht="14.4" customHeight="1">
       <c r="A49" s="36" t="n"/>
       <c r="H49" s="19" t="n"/>
     </row>
-    <row r="50">
+    <row r="50" ht="14.4" customHeight="1">
       <c r="A50" s="36" t="n"/>
       <c r="H50" s="19" t="n"/>
     </row>
-    <row r="51">
+    <row r="51" ht="14.4" customHeight="1">
       <c r="A51" s="36" t="n"/>
       <c r="H51" s="19" t="n"/>
     </row>
-    <row r="52">
+    <row r="52" ht="14.4" customHeight="1">
       <c r="A52" s="36" t="n"/>
       <c r="H52" s="19" t="n"/>
     </row>
-    <row r="53" ht="15.6" customHeight="1">
+    <row r="53" ht="15.65" customHeight="1">
       <c r="A53" s="36" t="n"/>
-      <c r="G53" s="87" t="inlineStr">
+      <c r="G53" s="90" t="inlineStr">
         <is>
           <t xml:space="preserve">            Authorized Signatory</t>
         </is>
       </c>
       <c r="H53" s="19" t="n"/>
     </row>
-    <row r="54" ht="15.6" customHeight="1">
+    <row r="54" ht="15.65" customHeight="1">
       <c r="A54" s="36" t="n"/>
       <c r="G54" s="31" t="n"/>
       <c r="H54" s="19" t="n"/>
     </row>
-    <row r="55" ht="15.6" customHeight="1">
+    <row r="55" ht="15.65" customHeight="1">
       <c r="A55" s="36" t="n"/>
       <c r="G55" s="31" t="n"/>
       <c r="H55" s="19" t="n"/>
     </row>
-    <row r="56" ht="15.6" customHeight="1">
+    <row r="56" ht="15.65" customHeight="1">
       <c r="A56" s="36" t="n"/>
       <c r="G56" s="31" t="n"/>
       <c r="H56" s="19" t="n"/>
     </row>
-    <row r="57" ht="15.6" customHeight="1">
+    <row r="57" ht="15.65" customHeight="1">
       <c r="A57" s="36" t="n"/>
       <c r="G57" s="31" t="n"/>
       <c r="H57" s="19" t="n"/>
     </row>
-    <row r="58" ht="15.6" customHeight="1">
+    <row r="58" ht="15.65" customHeight="1">
       <c r="A58" s="36" t="n"/>
       <c r="G58" s="31" t="n"/>
       <c r="H58" s="19" t="n"/>
     </row>
-    <row r="59" ht="15.6" customHeight="1">
+    <row r="59" ht="15.65" customHeight="1">
       <c r="A59" s="36" t="n"/>
       <c r="G59" s="31" t="n"/>
       <c r="H59" s="19" t="n"/>
     </row>
-    <row r="60" ht="15.6" customHeight="1">
+    <row r="60" ht="15.65" customHeight="1">
       <c r="A60" s="36" t="n"/>
       <c r="G60" s="31" t="n"/>
       <c r="H60" s="19" t="n"/>
     </row>
-    <row r="61" ht="15.6" customHeight="1">
+    <row r="61" ht="15.65" customHeight="1">
       <c r="A61" s="36" t="n"/>
       <c r="G61" s="31" t="n"/>
       <c r="H61" s="19" t="n"/>
     </row>
-    <row r="62" ht="15.6" customHeight="1">
+    <row r="62" ht="15.65" customHeight="1">
       <c r="A62" s="36" t="n"/>
       <c r="G62" s="31" t="n"/>
       <c r="H62" s="19" t="n"/>
     </row>
-    <row r="63">
+    <row r="63" ht="14.4" customHeight="1">
       <c r="A63" s="36" t="n"/>
       <c r="H63" s="19" t="n"/>
     </row>
-    <row r="64" ht="15.6" customHeight="1">
+    <row r="64" ht="15.5" customHeight="1">
       <c r="A64" s="37" t="inlineStr">
         <is>
           <t>●   Early Remittance is Solicited.</t>
@@ -2347,7 +2358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2404,7 +2415,7 @@
       </c>
       <c r="G1" s="126" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>Biiling</t>
         </is>
       </c>
       <c r="H1" s="126" t="inlineStr">
@@ -2474,10 +2485,8 @@
           <t>02-02-2026</t>
         </is>
       </c>
-      <c r="G2" s="127" t="inlineStr">
-        <is>
-          <t>Manager</t>
-        </is>
+      <c r="G2" s="127" t="n">
+        <v>69300</v>
       </c>
       <c r="H2" s="127" t="n">
         <v>30000</v>
@@ -2516,46 +2525,44 @@
       </c>
       <c r="C3" s="127" t="inlineStr">
         <is>
-          <t>JB-10273</t>
+          <t>JB-10200</t>
         </is>
       </c>
       <c r="D3" s="127" t="inlineStr">
         <is>
-          <t>KRUTIKA PRADEEP PATIL</t>
+          <t>CHINMAYA KIRAN BANSOLE</t>
         </is>
       </c>
       <c r="E3" s="127" t="inlineStr">
         <is>
-          <t>Pavan Kabra</t>
+          <t>Sachin Mutha/ Manmit Verma</t>
         </is>
       </c>
       <c r="F3" s="127" t="inlineStr">
         <is>
-          <t>02-02-2026</t>
-        </is>
-      </c>
-      <c r="G3" s="127" t="inlineStr">
-        <is>
-          <t>Executive</t>
-        </is>
+          <t>21-01-2026</t>
+        </is>
+      </c>
+      <c r="G3" s="127" t="n">
+        <v>55000</v>
       </c>
       <c r="H3" s="127" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="I3" s="127" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="J3" s="127" t="n">
-        <v>1350</v>
+        <v>2700</v>
       </c>
       <c r="K3" s="127" t="n">
-        <v>1350</v>
+        <v>2700</v>
       </c>
       <c r="L3" s="127" t="n">
         <v>0</v>
       </c>
       <c r="M3" s="127" t="n">
-        <v>17700</v>
+        <v>35400</v>
       </c>
       <c r="N3" s="127" t="inlineStr">
         <is>
@@ -2576,12 +2583,12 @@
       </c>
       <c r="C4" s="127" t="inlineStr">
         <is>
-          <t>JB-10280</t>
+          <t>JB-10273</t>
         </is>
       </c>
       <c r="D4" s="127" t="inlineStr">
         <is>
-          <t>NIKITA LILADHAR BHAVSAR</t>
+          <t>KRUTIKA PRADEEP PATIL</t>
         </is>
       </c>
       <c r="E4" s="127" t="inlineStr">
@@ -2591,13 +2598,11 @@
       </c>
       <c r="F4" s="127" t="inlineStr">
         <is>
-          <t>10-02-2026</t>
-        </is>
-      </c>
-      <c r="G4" s="127" t="inlineStr">
-        <is>
-          <t>Executive</t>
-        </is>
+          <t>02-02-2026</t>
+        </is>
+      </c>
+      <c r="G4" s="127" t="n">
+        <v>20087</v>
       </c>
       <c r="H4" s="127" t="n">
         <v>15000</v>
@@ -2636,90 +2641,320 @@
       </c>
       <c r="C5" s="127" t="inlineStr">
         <is>
-          <t>JB-10282</t>
+          <t>JB-10268</t>
         </is>
       </c>
       <c r="D5" s="127" t="inlineStr">
         <is>
-          <t>SHRADDHA RAJARAM CHAVAN</t>
+          <t>MIHIR DILIP SHAH</t>
         </is>
       </c>
       <c r="E5" s="127" t="inlineStr">
         <is>
-          <t>Prakash Hale</t>
+          <t>Karishma Modi</t>
         </is>
       </c>
       <c r="F5" s="127" t="inlineStr">
         <is>
-          <t>02-02-2026</t>
-        </is>
-      </c>
-      <c r="G5" s="127" t="inlineStr">
-        <is>
-          <t>Executive</t>
-        </is>
+          <t>27-01-2026</t>
+        </is>
+      </c>
+      <c r="G5" s="127" t="n">
+        <v>75000</v>
       </c>
       <c r="H5" s="127" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="I5" s="127" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="J5" s="127" t="n">
-        <v>1350</v>
+        <v>2700</v>
       </c>
       <c r="K5" s="127" t="n">
-        <v>1350</v>
+        <v>2700</v>
       </c>
       <c r="L5" s="127" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="127" t="n">
+        <v>35400</v>
+      </c>
+      <c r="N5" s="127" t="inlineStr">
+        <is>
+          <t>New Joiner</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="127" t="inlineStr">
+        <is>
+          <t>Anil Agarwal</t>
+        </is>
+      </c>
+      <c r="B6" s="127" t="inlineStr">
+        <is>
+          <t>Reliance Industries Ltd</t>
+        </is>
+      </c>
+      <c r="C6" s="127" t="inlineStr">
+        <is>
+          <t>JB-10280</t>
+        </is>
+      </c>
+      <c r="D6" s="127" t="inlineStr">
+        <is>
+          <t>NIKITA LILADHAR BHAVSAR</t>
+        </is>
+      </c>
+      <c r="E6" s="127" t="inlineStr">
+        <is>
+          <t>Pavan Kabra</t>
+        </is>
+      </c>
+      <c r="F6" s="127" t="inlineStr">
+        <is>
+          <t>10-02-2026</t>
+        </is>
+      </c>
+      <c r="G6" s="127" t="n">
+        <v>35292</v>
+      </c>
+      <c r="H6" s="127" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I6" s="127" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J6" s="127" t="n">
+        <v>1350</v>
+      </c>
+      <c r="K6" s="127" t="n">
+        <v>1350</v>
+      </c>
+      <c r="L6" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="127" t="n">
         <v>17700</v>
       </c>
-      <c r="N5" s="127" t="inlineStr">
+      <c r="N6" s="127" t="inlineStr">
         <is>
           <t>New Joiner</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="128" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="127" t="inlineStr">
+        <is>
+          <t>Anil Agarwal</t>
+        </is>
+      </c>
+      <c r="B7" s="127" t="inlineStr">
+        <is>
+          <t>Reliance Industries Ltd</t>
+        </is>
+      </c>
+      <c r="C7" s="127" t="inlineStr">
+        <is>
+          <t>JB-10272</t>
+        </is>
+      </c>
+      <c r="D7" s="127" t="inlineStr">
+        <is>
+          <t>PRADNYA SANTOSH PHALKE</t>
+        </is>
+      </c>
+      <c r="E7" s="127" t="inlineStr">
+        <is>
+          <t>R K khandewal</t>
+        </is>
+      </c>
+      <c r="F7" s="127" t="inlineStr">
+        <is>
+          <t>29-01-2026</t>
+        </is>
+      </c>
+      <c r="G7" s="127" t="n">
+        <v>34500</v>
+      </c>
+      <c r="H7" s="127" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I7" s="127" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J7" s="127" t="n">
+        <v>1350</v>
+      </c>
+      <c r="K7" s="127" t="n">
+        <v>1350</v>
+      </c>
+      <c r="L7" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="127" t="n">
+        <v>17700</v>
+      </c>
+      <c r="N7" s="127" t="inlineStr">
+        <is>
+          <t>New Joiner</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="127" t="inlineStr">
+        <is>
+          <t>Anil Agarwal</t>
+        </is>
+      </c>
+      <c r="B8" s="127" t="inlineStr">
+        <is>
+          <t>Reliance Industries Ltd</t>
+        </is>
+      </c>
+      <c r="C8" s="127" t="inlineStr">
+        <is>
+          <t>JB-10282</t>
+        </is>
+      </c>
+      <c r="D8" s="127" t="inlineStr">
+        <is>
+          <t>SHRADDHA RAJARAM CHAVAN</t>
+        </is>
+      </c>
+      <c r="E8" s="127" t="inlineStr">
+        <is>
+          <t>Prakash Hale</t>
+        </is>
+      </c>
+      <c r="F8" s="127" t="inlineStr">
+        <is>
+          <t>02-02-2026</t>
+        </is>
+      </c>
+      <c r="G8" s="127" t="n">
+        <v>44117</v>
+      </c>
+      <c r="H8" s="127" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I8" s="127" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J8" s="127" t="n">
+        <v>1350</v>
+      </c>
+      <c r="K8" s="127" t="n">
+        <v>1350</v>
+      </c>
+      <c r="L8" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="127" t="n">
+        <v>17700</v>
+      </c>
+      <c r="N8" s="127" t="inlineStr">
+        <is>
+          <t>New Joiner</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="127" t="inlineStr">
+        <is>
+          <t>Anil Agarwal</t>
+        </is>
+      </c>
+      <c r="B9" s="127" t="inlineStr">
+        <is>
+          <t>Reliance Industries Ltd</t>
+        </is>
+      </c>
+      <c r="C9" s="127" t="inlineStr">
+        <is>
+          <t>JB-10279</t>
+        </is>
+      </c>
+      <c r="D9" s="127" t="inlineStr">
+        <is>
+          <t>VARAD VILAS PRABHUDESAI</t>
+        </is>
+      </c>
+      <c r="E9" s="127" t="inlineStr">
+        <is>
+          <t>Manish Bhutoria</t>
+        </is>
+      </c>
+      <c r="F9" s="127" t="inlineStr">
+        <is>
+          <t>23-01-2026</t>
+        </is>
+      </c>
+      <c r="G9" s="127" t="n">
+        <v>87500</v>
+      </c>
+      <c r="H9" s="127" t="n">
+        <v>30000</v>
+      </c>
+      <c r="I9" s="127" t="n">
+        <v>30000</v>
+      </c>
+      <c r="J9" s="127" t="n">
+        <v>2700</v>
+      </c>
+      <c r="K9" s="127" t="n">
+        <v>2700</v>
+      </c>
+      <c r="L9" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="127" t="n">
+        <v>35400</v>
+      </c>
+      <c r="N9" s="127" t="inlineStr">
+        <is>
+          <t>New Joiner</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="128" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B6" s="128" t="n"/>
-      <c r="C6" s="128" t="n"/>
-      <c r="D6" s="128" t="n"/>
-      <c r="E6" s="128" t="n"/>
-      <c r="F6" s="128" t="n"/>
-      <c r="G6" s="128" t="n"/>
-      <c r="H6" s="128">
-        <f>ROUND(SUM(H2:H5), 0)</f>
+      <c r="B10" s="128" t="n"/>
+      <c r="C10" s="128" t="n"/>
+      <c r="D10" s="128" t="n"/>
+      <c r="E10" s="128" t="n"/>
+      <c r="F10" s="128" t="n"/>
+      <c r="G10" s="128" t="n"/>
+      <c r="H10" s="128">
+        <f>ROUND(SUM(H2:H9), 0)</f>
         <v/>
       </c>
-      <c r="I6" s="128">
-        <f>ROUND(SUM(I2:I5), 0)</f>
+      <c r="I10" s="128">
+        <f>ROUND(SUM(I2:I9), 0)</f>
         <v/>
       </c>
-      <c r="J6" s="128">
-        <f>CEILING(SUM(J2:J5), 1)</f>
+      <c r="J10" s="128">
+        <f>CEILING(SUM(J2:J9), 1)</f>
         <v/>
       </c>
-      <c r="K6" s="128">
-        <f>CEILING(SUM(K2:K5), 1)</f>
+      <c r="K10" s="128">
+        <f>CEILING(SUM(K2:K9), 1)</f>
         <v/>
       </c>
-      <c r="L6" s="128">
-        <f>ROUND(SUM(L2:L5), 0)</f>
+      <c r="L10" s="128">
+        <f>ROUND(SUM(L2:L9), 0)</f>
         <v/>
       </c>
-      <c r="M6" s="128">
-        <f>ROUND(SUM(I6,J6,K6,L6), 0)</f>
+      <c r="M10" s="128">
+        <f>ROUND(SUM(I10,J10,K10,L10), 0)</f>
         <v/>
       </c>
-      <c r="N6" s="128" t="n"/>
+      <c r="N10" s="128" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
